--- a/python/Statistics/Results/classification_comparison_between_DBs_Oct-Feb_1979-2016.xlsx
+++ b/python/Statistics/Results/classification_comparison_between_DBs_Oct-Feb_1979-2016.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>1979-2016</t>
   </si>
@@ -58,13 +58,19 @@
   </si>
   <si>
     <t>NCEP-West</t>
+  </si>
+  <si>
+    <t>NCEP-RST</t>
+  </si>
+  <si>
+    <t>ERA 2.5-RST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,8 +100,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,6 +123,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -137,12 +155,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -151,8 +170,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F1:O10"/>
+  <dimension ref="F1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,6 +489,7 @@
     <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -691,7 +713,41 @@
         <v>73</v>
       </c>
     </row>
+    <row r="12" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="L12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="K13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="3">
+        <v>3073</v>
+      </c>
+      <c r="M13" s="4">
+        <f>SUM(M2:O2)</f>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="14" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="K14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="4">
+        <f>SUM(L3:L5)</f>
+        <v>577</v>
+      </c>
+      <c r="M14">
+        <f>SUM(M3:O5)</f>
+        <v>1710</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>